--- a/plasmidisodaata1.xlsx
+++ b/plasmidisodaata1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>resistance</t>
   </si>
@@ -26,18 +26,27 @@
   <si>
     <t>colony</t>
   </si>
+  <si>
+    <t>1-kan 2- cam 3-cip 4 -tet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +376,7 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>37</v>
       </c>
@@ -1032,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>37</v>
       </c>
@@ -1040,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>37</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>38</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>39</v>
       </c>
@@ -1064,15 +1074,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>39</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>39</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>39</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>40</v>
       </c>
@@ -1096,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>40</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>40</v>
       </c>
@@ -1112,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>40</v>
       </c>
@@ -1120,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>41</v>
       </c>
@@ -1128,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>42</v>
       </c>
@@ -1136,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>42</v>
       </c>
@@ -1144,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>43</v>
       </c>
@@ -1258,6 +1271,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
